--- a/src/main/resources/template/excel/export/goodsOutInDetailReport.xlsx
+++ b/src/main/resources/template/excel/export/goodsOutInDetailReport.xlsx
@@ -34,7 +34,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="W3")</t>
+jx:area(lastCell="Y3")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="W3")</t>
+jx:each(items="reportList" var="obj" lastCell="Y3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>商品出入库明细查询</t>
   </si>
@@ -113,103 +113,120 @@
     <t>售价金额</t>
   </si>
   <si>
+    <t>成本金额</t>
+  </si>
+  <si>
+    <t>小票号</t>
+  </si>
+  <si>
+    <t>${obj.branchCode}</t>
+  </si>
+  <si>
+    <t>${obj.branchName}</t>
+  </si>
+  <si>
+    <t>${obj.formNo}</t>
+  </si>
+  <si>
+    <t>${obj.skuName}</t>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
+  </si>
+  <si>
+    <t>${obj.barCode}</t>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+  </si>
+  <si>
+    <t>${obj.pricingType}</t>
+  </si>
+  <si>
+    <t>${obj.createTime}</t>
+  </si>
+  <si>
+    <t>${obj.categoryCode}</t>
+  </si>
+  <si>
+    <t>${obj.categoryName}</t>
+  </si>
+  <si>
+    <t>${obj.formType}</t>
+  </si>
+  <si>
+    <t>${obj.outNum}</t>
+  </si>
+  <si>
+    <t>${obj.inNum}</t>
+  </si>
+  <si>
+    <t>${obj.costPrice}</t>
+  </si>
+  <si>
+    <t>${obj.costAmount}</t>
+  </si>
+  <si>
+    <t>${obj.salePrice}</t>
+  </si>
+  <si>
+    <t>${obj.saleAmount}</t>
+  </si>
+  <si>
+    <t>${obj.ticketNo}</t>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.supplierName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.price}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.priceAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>成本价</t>
-  </si>
-  <si>
-    <t>成本金额</t>
-  </si>
-  <si>
-    <t>小票号</t>
-  </si>
-  <si>
-    <t>${obj.branchCode}</t>
-  </si>
-  <si>
-    <t>${obj.branchName}</t>
-  </si>
-  <si>
-    <t>${obj.formNo}</t>
-  </si>
-  <si>
-    <t>${obj.skuName}</t>
-  </si>
-  <si>
-    <t>${obj.skuCode}</t>
-  </si>
-  <si>
-    <t>${obj.barCode}</t>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-  </si>
-  <si>
-    <t>${obj.unit}</t>
-  </si>
-  <si>
-    <t>${obj.pricingType}</t>
-  </si>
-  <si>
-    <t>${obj.createTime}</t>
-  </si>
-  <si>
-    <t>${obj.categoryCode}</t>
-  </si>
-  <si>
-    <t>${obj.categoryName}</t>
-  </si>
-  <si>
-    <t>${obj.formType}</t>
-  </si>
-  <si>
-    <t>${obj.outNum}</t>
-  </si>
-  <si>
-    <t>${obj.inNum}</t>
-  </si>
-  <si>
-    <t>${obj.costPrice}</t>
-  </si>
-  <si>
-    <t>${obj.costAmount}</t>
-  </si>
-  <si>
-    <t>${obj.salePrice}</t>
-  </si>
-  <si>
-    <t>${obj.saleAmount}</t>
-  </si>
-  <si>
-    <t>${obj.ticketNo}</t>
-  </si>
-  <si>
-    <t>日期时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.supplierName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.price}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.priceAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别编码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税成本价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税成本金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedCostAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedCostPrice}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -324,13 +341,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -349,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -635,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,39 +667,43 @@
     <col min="5" max="6" width="18.625" customWidth="1"/>
     <col min="7" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="18.625" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="11" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="23" width="12.625" customWidth="1"/>
+    <col min="24" max="24" width="18.625" customWidth="1"/>
+    <col min="25" max="25" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,110 +744,122 @@
         <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="Y3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
